--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_10_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_10_26.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1576621.072707681</v>
+        <v>1685263.234010493</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12443012.75936921</v>
+        <v>12383593.4843585</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283188</v>
+        <v>416855.105228318</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10392745.83384815</v>
+        <v>10398239.47983657</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -665,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>236.0728104749815</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -674,7 +676,7 @@
         <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -710,7 +712,7 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>174.8476533349621</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
@@ -719,10 +721,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -817,25 +819,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>23.95432611724864</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>125.0363540602926</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -908,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>228.3619192228264</v>
+        <v>118.2649414021276</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,10 +949,10 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -993,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>122.2068741318235</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1060,19 +1062,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>70.62659068010406</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
         <v>194.6624603617375</v>
@@ -1114,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1145,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>130.9898714432088</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1193,10 +1195,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>37.84125266805073</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1224,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,16 +1259,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T9" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U9" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1288,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1306,10 +1308,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>79.54581243241745</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,25 +1338,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>71.70019975407486</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1367,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1531,22 +1533,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>108.2950343703266</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1658,10 +1660,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1810,22 +1812,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>245.8796921214428</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1859,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1898,7 +1900,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2047,25 +2049,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>176.76214411214</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>111.5512144998715</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2138,7 +2140,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2242,16 +2244,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="E22" t="n">
-        <v>99.97427419833815</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>68.17501931583824</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,16 +2526,16 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>137.9792024346624</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2603,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2719,19 +2721,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>99.9742741983392</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2801,7 +2803,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G29" t="n">
         <v>409.8033385187866</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2962,13 +2964,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>55.52079624060472</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,19 +2997,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>177.9413471369465</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3016,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3184,19 +3186,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3205,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>108.9065924712593</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3247,10 +3249,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>280.3460310779727</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3314,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3424,10 +3426,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>20.43112068613203</v>
       </c>
       <c r="D37" t="n">
-        <v>27.02919805176109</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3436,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3509,7 +3511,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3551,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3667,19 +3669,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>26.05480806223734</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>5.623597659135275</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3724,10 +3726,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3791,7 +3793,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3895,19 +3897,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>64.36993339924405</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>9.146142788183983</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4132,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4144,7 +4146,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4153,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,22 +4185,22 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>74.95497330697962</v>
       </c>
       <c r="T46" t="n">
-        <v>182.6625718220546</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1420.453969953915</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="C2" t="n">
-        <v>1420.453969953915</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="D2" t="n">
-        <v>1420.453969953915</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="E2" t="n">
-        <v>1181.996585635751</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="F2" t="n">
-        <v>771.0106808461439</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G2" t="n">
-        <v>355.3059305704328</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H2" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
         <v>187.5281822362819</v>
@@ -4346,34 +4348,34 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q2" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R2" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
         <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2437.640120926626</v>
+        <v>2261.02632967919</v>
       </c>
       <c r="U2" t="n">
-        <v>2184.059060190806</v>
+        <v>2007.445268943369</v>
       </c>
       <c r="V2" t="n">
-        <v>2184.059060190806</v>
+        <v>2007.445268943369</v>
       </c>
       <c r="W2" t="n">
-        <v>2184.059060190806</v>
+        <v>1654.676613673255</v>
       </c>
       <c r="X2" t="n">
-        <v>1810.593301929726</v>
+        <v>1654.676613673255</v>
       </c>
       <c r="Y2" t="n">
-        <v>1420.453969953915</v>
+        <v>1264.537281697444</v>
       </c>
     </row>
     <row r="3">
@@ -4404,34 +4406,34 @@
         <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
         <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310615</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625333</v>
+        <v>599.4122767260736</v>
       </c>
       <c r="M3" t="n">
-        <v>1227.201367341572</v>
+        <v>1233.591260505112</v>
       </c>
       <c r="N3" t="n">
-        <v>1614.486495938517</v>
+        <v>1867.770244284151</v>
       </c>
       <c r="O3" t="n">
-        <v>2199.840679460313</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.02341329261</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S3" t="n">
         <v>2426.617474780096</v>
@@ -4462,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>793.7763443906358</v>
+        <v>517.2629842544534</v>
       </c>
       <c r="C4" t="n">
-        <v>624.8401614627289</v>
+        <v>517.2629842544534</v>
       </c>
       <c r="D4" t="n">
-        <v>600.6438724554071</v>
+        <v>367.1463448421176</v>
       </c>
       <c r="E4" t="n">
-        <v>452.7307788730139</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="F4" t="n">
-        <v>305.8408313751036</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G4" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386097</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312202</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020476</v>
@@ -4495,7 +4497,7 @@
         <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.219460709659</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
@@ -4507,31 +4509,31 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>1310.884232784815</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U4" t="n">
-        <v>1021.765895288653</v>
+        <v>1510.146772538848</v>
       </c>
       <c r="V4" t="n">
-        <v>1021.765895288653</v>
+        <v>1255.462284332961</v>
       </c>
       <c r="W4" t="n">
-        <v>1021.765895288653</v>
+        <v>966.0451142960009</v>
       </c>
       <c r="X4" t="n">
-        <v>793.7763443906358</v>
+        <v>738.0555633979835</v>
       </c>
       <c r="Y4" t="n">
-        <v>793.7763443906358</v>
+        <v>517.2629842544534</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1078.689549231437</v>
+        <v>1033.854129889792</v>
       </c>
       <c r="C5" t="n">
-        <v>1078.689549231437</v>
+        <v>1033.854129889792</v>
       </c>
       <c r="D5" t="n">
-        <v>1078.689549231437</v>
+        <v>1033.854129889792</v>
       </c>
       <c r="E5" t="n">
-        <v>692.9012966331929</v>
+        <v>648.0658772915481</v>
       </c>
       <c r="F5" t="n">
-        <v>281.9153918435854</v>
+        <v>237.0799725019405</v>
       </c>
       <c r="G5" t="n">
-        <v>51.24678656800312</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H5" t="n">
-        <v>51.24678656800312</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4586,31 +4588,31 @@
         <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
         <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2228.894479532451</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U5" t="n">
-        <v>2228.894479532451</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="V5" t="n">
-        <v>2228.894479532451</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="W5" t="n">
-        <v>2228.894479532451</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="X5" t="n">
-        <v>1855.428721271371</v>
+        <v>1810.593301929726</v>
       </c>
       <c r="Y5" t="n">
-        <v>1465.289389295559</v>
+        <v>1420.453969953914</v>
       </c>
     </row>
     <row r="6">
@@ -4620,46 +4622,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500113</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K6" t="n">
-        <v>560.1394111735141</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L6" t="n">
-        <v>854.8429682049857</v>
+        <v>932.4978103100999</v>
       </c>
       <c r="M6" t="n">
-        <v>1218.104987164206</v>
+        <v>1480.485115687205</v>
       </c>
       <c r="N6" t="n">
-        <v>1605.390115761151</v>
+        <v>1867.77024428415</v>
       </c>
       <c r="O6" t="n">
-        <v>1937.460550937313</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P6" t="n">
         <v>2447.023413292609</v>
@@ -4677,7 +4679,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4686,7 +4688,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>514.8620968941287</v>
+        <v>376.3550174069666</v>
       </c>
       <c r="C7" t="n">
-        <v>514.8620968941287</v>
+        <v>376.3550174069666</v>
       </c>
       <c r="D7" t="n">
-        <v>514.8620968941287</v>
+        <v>376.3550174069666</v>
       </c>
       <c r="E7" t="n">
-        <v>514.8620968941287</v>
+        <v>228.4419238245735</v>
       </c>
       <c r="F7" t="n">
-        <v>367.9721493962184</v>
+        <v>228.4419238245735</v>
       </c>
       <c r="G7" t="n">
-        <v>199.9856847044969</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800312</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312198</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S7" t="n">
-        <v>1439.817372234358</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T7" t="n">
-        <v>1216.838891429094</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U7" t="n">
-        <v>927.7205539329314</v>
+        <v>825.137147448514</v>
       </c>
       <c r="V7" t="n">
-        <v>927.7205539329314</v>
+        <v>825.137147448514</v>
       </c>
       <c r="W7" t="n">
-        <v>638.3033838959707</v>
+        <v>825.137147448514</v>
       </c>
       <c r="X7" t="n">
-        <v>638.3033838959707</v>
+        <v>597.1475965504967</v>
       </c>
       <c r="Y7" t="n">
-        <v>638.3033838959707</v>
+        <v>376.3550174069666</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2047.583838282732</v>
+        <v>1785.600156360222</v>
       </c>
       <c r="C8" t="n">
-        <v>1678.62132134232</v>
+        <v>1416.637639419811</v>
       </c>
       <c r="D8" t="n">
-        <v>1320.35562273557</v>
+        <v>1058.37194081306</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>672.583688214816</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>261.5977834252084</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>249.9334371899014</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>187.5281822362818</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>795.7553530872924</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1220.470313923563</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136266</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="V8" t="n">
-        <v>3215.315153136266</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="W8" t="n">
-        <v>2862.546497866151</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="X8" t="n">
-        <v>2824.323010322666</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="Y8" t="n">
-        <v>2434.183678346854</v>
+        <v>2172.199996424344</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811091</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999821</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387309</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332754</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601604</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>458.7060632252731</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>1092.885047004312</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1456.147065963532</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1843.432194560477</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>591.781102412113</v>
+        <v>769.5800553833139</v>
       </c>
       <c r="C10" t="n">
-        <v>591.781102412113</v>
+        <v>600.6438724554071</v>
       </c>
       <c r="D10" t="n">
-        <v>441.6644629997772</v>
+        <v>600.6438724554071</v>
       </c>
       <c r="E10" t="n">
-        <v>293.7513694173841</v>
+        <v>452.7307788730139</v>
       </c>
       <c r="F10" t="n">
-        <v>146.8614219194738</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="G10" t="n">
-        <v>146.8614219194738</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H10" t="n">
-        <v>146.8614219194738</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1849.684251935978</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="T10" t="n">
-        <v>1645.778206672847</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="U10" t="n">
-        <v>1356.675339798491</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="V10" t="n">
-        <v>1101.990851592604</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="W10" t="n">
-        <v>812.5736815556431</v>
+        <v>1244.445543553119</v>
       </c>
       <c r="X10" t="n">
-        <v>812.5736815556431</v>
+        <v>1172.021099357084</v>
       </c>
       <c r="Y10" t="n">
-        <v>591.781102412113</v>
+        <v>951.2285202135537</v>
       </c>
     </row>
     <row r="11">
@@ -5036,22 +5038,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5115,31 +5117,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>352.5519571452614</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M12" t="n">
-        <v>949.9304447718133</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121643</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D13" t="n">
-        <v>235.5284942057738</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E13" t="n">
-        <v>235.5284942057738</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F13" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5221,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="14">
@@ -5273,13 +5275,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5367,13 +5369,13 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1670.092171589158</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>2222.001901828445</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
         <v>2516.421633107662</v>
@@ -5458,19 +5460,19 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U16" t="n">
-        <v>1729.097755135313</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V16" t="n">
-        <v>1729.097755135313</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W16" t="n">
         <v>1729.097755135313</v>
@@ -5495,22 +5497,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111715</v>
@@ -5519,13 +5521,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5549,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5595,25 +5597,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5695,22 +5697,22 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U19" t="n">
-        <v>2157.887856924458</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="V19" t="n">
-        <v>1903.203368718571</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W19" t="n">
-        <v>1613.786198681611</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X19" t="n">
         <v>1501.108204237296</v>
@@ -5738,22 +5740,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5762,16 +5764,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5786,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5832,22 +5834,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>454.6048385560546</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>949.9304447718133</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>194.8007783998286</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E22" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F22" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
         <v>93.81666304797187</v>
@@ -5908,52 +5910,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5975,22 +5977,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -5999,16 +6001,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6069,19 +6071,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>251.5626541092265</v>
       </c>
       <c r="L24" t="n">
-        <v>243.4633055756266</v>
+        <v>746.8882603249853</v>
       </c>
       <c r="M24" t="n">
-        <v>716.6687843969308</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P24" t="n">
         <v>2319.799627685893</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1098.667160263527</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356195</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232838</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>244.7670222746423</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>2446.96308358026</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>2157.887856924458</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>2018.514925172274</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1729.097755135313</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>1501.108204237296</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y25" t="n">
-        <v>1280.315625093766</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="26">
@@ -6212,46 +6214,46 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
         <v>4405.252601474784</v>
@@ -6260,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,31 +6299,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J27" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>716.6687843969308</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969308</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.667160263527</v>
+        <v>2757.723669558406</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356195</v>
+        <v>2588.787486630499</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232838</v>
+        <v>2438.670847218163</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>2337.686731866305</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>2337.686731866305</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>2337.686731866305</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>2337.686731866305</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866305</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296629</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822168</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998108</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729143</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.430181389151</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098136</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671695</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>4623.787448650996</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>4440.932614305901</v>
       </c>
       <c r="T28" t="n">
-        <v>2446.96308358026</v>
+        <v>4221.331149328842</v>
       </c>
       <c r="U28" t="n">
-        <v>2273.199413378161</v>
+        <v>3932.25592267304</v>
       </c>
       <c r="V28" t="n">
-        <v>2018.514925172274</v>
+        <v>3677.571434467153</v>
       </c>
       <c r="W28" t="n">
-        <v>1729.097755135313</v>
+        <v>3388.154264430193</v>
       </c>
       <c r="X28" t="n">
-        <v>1501.108204237296</v>
+        <v>3160.164713532175</v>
       </c>
       <c r="Y28" t="n">
-        <v>1280.315625093766</v>
+        <v>2939.372134388645</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6442,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6452,19 +6454,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6479,31 +6481,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6536,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J30" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M30" t="n">
-        <v>1307.627092998424</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1098.667160263527</v>
+        <v>763.7541388327652</v>
       </c>
       <c r="C31" t="n">
-        <v>929.7309773356195</v>
+        <v>594.8179559048583</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232838</v>
+        <v>444.7013164925226</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408906</v>
+        <v>296.7882229101294</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>149.8982754122191</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U31" t="n">
-        <v>1797.722346028744</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V31" t="n">
-        <v>1797.722346028744</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W31" t="n">
-        <v>1508.305175991783</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X31" t="n">
-        <v>1280.315625093766</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y31" t="n">
-        <v>1280.315625093766</v>
+        <v>945.4026036630049</v>
       </c>
     </row>
     <row r="32">
@@ -6689,28 +6691,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.422291068009</v>
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C33" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D33" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F33" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G33" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>2381.235169913446</v>
       </c>
       <c r="K33" t="n">
-        <v>245.2306927803937</v>
+        <v>2381.235169913446</v>
       </c>
       <c r="L33" t="n">
-        <v>680.0291294438176</v>
+        <v>2876.560776129205</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>3473.939263755757</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>4101.537227310364</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>4653.446957549651</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R33" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S33" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T33" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U33" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V33" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W33" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X33" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y33" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>929.7309773356195</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C34" t="n">
-        <v>929.7309773356195</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232838</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W34" t="n">
-        <v>1150.52355647915</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X34" t="n">
-        <v>1150.52355647915</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y34" t="n">
-        <v>929.7309773356195</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="35">
@@ -6929,16 +6931,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6947,19 +6949,19 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
         <v>4606.285157492578</v>
@@ -6999,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J36" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>280.8495004245706</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>776.1751066403293</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M36" t="n">
-        <v>1373.553594266881</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D37" t="n">
-        <v>317.6151975578602</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E37" t="n">
-        <v>317.6151975578602</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F37" t="n">
-        <v>317.6151975578602</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H37" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7151,28 +7153,28 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
@@ -7181,40 +7183,40 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,31 +7247,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>280.8495004245697</v>
       </c>
       <c r="L39" t="n">
-        <v>716.6687843969308</v>
+        <v>776.1751066403286</v>
       </c>
       <c r="M39" t="n">
-        <v>716.6687843969308</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>962.6357307816187</v>
+        <v>2824.769373306005</v>
       </c>
       <c r="C40" t="n">
-        <v>793.6995478537118</v>
+        <v>2655.833190378098</v>
       </c>
       <c r="D40" t="n">
-        <v>643.582908441376</v>
+        <v>2505.716550965762</v>
       </c>
       <c r="E40" t="n">
-        <v>495.6698148589829</v>
+        <v>2479.398563024108</v>
       </c>
       <c r="F40" t="n">
-        <v>348.7798673610725</v>
+        <v>2479.398563024108</v>
       </c>
       <c r="G40" t="n">
-        <v>181.5837680759525</v>
+        <v>2479.398563024108</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>2337.686731866306</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866306</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.92275029663</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822169</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998109</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729144</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.430181389152</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098137</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671696</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>4507.9783180535</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>4288.376853076441</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>3999.301626420639</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>3744.617138214752</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>3455.199968177792</v>
       </c>
       <c r="X40" t="n">
-        <v>1144.284195611858</v>
+        <v>3227.210417279774</v>
       </c>
       <c r="Y40" t="n">
-        <v>1144.284195611858</v>
+        <v>3006.417838136244</v>
       </c>
     </row>
     <row r="41">
@@ -7388,7 +7390,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7397,52 +7399,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V41" t="n">
         <v>3820.749612123003</v>
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C42" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D42" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G42" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I42" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J42" t="n">
-        <v>2231.588527385791</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>2231.588527385791</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>2726.91413360155</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>3324.292621228102</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N42" t="n">
-        <v>3951.890584782709</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O42" t="n">
-        <v>4503.800315021996</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P42" t="n">
-        <v>4690.833152398593</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q42" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S42" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T42" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U42" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V42" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W42" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X42" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y42" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="43">
@@ -7543,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>762.5477693179085</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>762.5477693179085</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D43" t="n">
-        <v>697.5276345711974</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>549.6145409888043</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
         <v>402.7245934908939</v>
@@ -7561,58 +7563,58 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797788</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910813</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570822</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279807</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853365</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580265</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614387</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>762.5477693179085</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7625,40 +7627,40 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362693</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7667,19 +7669,19 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V44" t="n">
         <v>3820.749612123003</v>
@@ -7710,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,34 +7721,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>251.562654109227</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>746.8882603249857</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1098.667160263527</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C46" t="n">
-        <v>929.7309773356195</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6143379232838</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
@@ -7831,25 +7833,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2371.250989330786</v>
       </c>
       <c r="T46" t="n">
-        <v>2079.600600930059</v>
+        <v>2151.649524353727</v>
       </c>
       <c r="U46" t="n">
-        <v>1790.525374274257</v>
+        <v>1862.574297697925</v>
       </c>
       <c r="V46" t="n">
-        <v>1790.525374274257</v>
+        <v>1607.889809492038</v>
       </c>
       <c r="W46" t="n">
-        <v>1501.108204237296</v>
+        <v>1318.472639455077</v>
       </c>
       <c r="X46" t="n">
-        <v>1501.108204237296</v>
+        <v>1090.48308855706</v>
       </c>
       <c r="Y46" t="n">
-        <v>1280.315625093766</v>
+        <v>869.6905094135296</v>
       </c>
     </row>
   </sheetData>
@@ -8061,16 +8063,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>6.454437538929767</v>
       </c>
       <c r="M3" t="n">
         <v>273.6534998179984</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>249.3877325071649</v>
       </c>
       <c r="O3" t="n">
-        <v>255.8421700460949</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -8079,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154985</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8295,13 +8297,13 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>342.9044714621886</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>186.5911984019039</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8310,13 +8312,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>265.0304328515147</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8526,16 +8528,16 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>35.91627445172418</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>342.9044714621887</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8553,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23419,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>40.32043864788574</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23698,22 +23700,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>40.30478226780133</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23935,25 +23937,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>75.37549921168795</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24130,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>65.54986409393022</v>
       </c>
       <c r="E22" t="n">
-        <v>46.45968844823102</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24367,19 +24369,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>72.11969353038562</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24409,19 +24411,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24607,19 +24609,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>46.45968844822997</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24850,13 +24852,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>110.0033420516641</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,19 +24885,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>108.2431272522977</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24904,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25072,19 +25074,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25120,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>72.11969353038532</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25135,10 +25137,10 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>6.176967258618276</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25312,10 +25314,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>146.8157004124958</v>
       </c>
       <c r="D37" t="n">
-        <v>121.5862749664513</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25324,10 +25326,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25555,19 +25557,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>120.3791545843318</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>134.6711151870886</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25612,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25783,19 +25785,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>84.24553961896831</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25804,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>57.22910392193768</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26020,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26032,7 +26034,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26041,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,22 +26073,22 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>106.071312694665</v>
       </c>
       <c r="T46" t="n">
-        <v>34.74287850523362</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>909245.3865008352</v>
+        <v>915187.314001906</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>893960.6993091301</v>
+        <v>893960.6993091302</v>
       </c>
     </row>
     <row r="6">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>893960.6993091302</v>
+        <v>893960.6993091301</v>
       </c>
     </row>
     <row r="11">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>893960.6993091301</v>
+        <v>893960.6993091302</v>
       </c>
     </row>
     <row r="15">
@@ -26314,25 +26316,25 @@
         <v>533677.1504117842</v>
       </c>
       <c r="C2" t="n">
-        <v>533677.1504117841</v>
+        <v>533677.1504117842</v>
       </c>
       <c r="D2" t="n">
-        <v>533677.1504117844</v>
+        <v>533677.1504117842</v>
       </c>
       <c r="E2" t="n">
         <v>524645.289798504</v>
       </c>
       <c r="F2" t="n">
-        <v>524645.2897985039</v>
+        <v>524645.2897985041</v>
       </c>
       <c r="G2" t="n">
         <v>524645.289798504</v>
       </c>
       <c r="H2" t="n">
-        <v>524645.2897985041</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="I2" t="n">
-        <v>524645.2897985041</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="J2" t="n">
         <v>524645.2897985039</v>
@@ -26341,19 +26343,19 @@
         <v>524645.2897985041</v>
       </c>
       <c r="L2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="M2" t="n">
         <v>524645.2897985039</v>
       </c>
       <c r="N2" t="n">
+        <v>524645.2897985042</v>
+      </c>
+      <c r="O2" t="n">
         <v>524645.289798504</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>524645.2897985041</v>
-      </c>
-      <c r="P2" t="n">
-        <v>524645.289798504</v>
       </c>
     </row>
     <row r="3">
@@ -26369,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403379</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>507485.4416245457</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,7 +26383,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26393,13 +26395,13 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819068</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>132607.2937289267</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.569592313899193e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26418,10 +26420,10 @@
         <v>131909.7268316249</v>
       </c>
       <c r="C4" t="n">
-        <v>131909.726831625</v>
+        <v>131909.7268316249</v>
       </c>
       <c r="D4" t="n">
-        <v>86084.45926805865</v>
+        <v>131909.7268316249</v>
       </c>
       <c r="E4" t="n">
         <v>6897.42449670736</v>
@@ -26433,25 +26435,25 @@
         <v>6897.42449670736</v>
       </c>
       <c r="H4" t="n">
+        <v>6897.424496707361</v>
+      </c>
+      <c r="I4" t="n">
         <v>6897.42449670736</v>
       </c>
-      <c r="I4" t="n">
-        <v>6897.424496707361</v>
-      </c>
       <c r="J4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707305</v>
       </c>
       <c r="K4" t="n">
         <v>6897.42449670736</v>
       </c>
       <c r="L4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707361</v>
       </c>
       <c r="M4" t="n">
         <v>6897.42449670736</v>
       </c>
       <c r="N4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707361</v>
       </c>
       <c r="O4" t="n">
         <v>6897.42449670736</v>
@@ -26467,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>92937.77243984472</v>
+      </c>
+      <c r="C5" t="n">
+        <v>92937.77243984472</v>
+      </c>
+      <c r="D5" t="n">
         <v>92937.77243984473</v>
-      </c>
-      <c r="C5" t="n">
-        <v>92937.77243984473</v>
-      </c>
-      <c r="D5" t="n">
-        <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26503,7 +26505,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="N5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="O5" t="n">
         <v>101122.5298239071</v>
@@ -26522,25 +26524,25 @@
         <v>-805922.1324356054</v>
       </c>
       <c r="C6" t="n">
-        <v>308829.6511403147</v>
+        <v>308829.6511403145</v>
       </c>
       <c r="D6" t="n">
-        <v>147031.6101419946</v>
+        <v>308829.6511403145</v>
       </c>
       <c r="E6" t="n">
-        <v>91212.87367053435</v>
+        <v>-90860.10614665622</v>
       </c>
       <c r="F6" t="n">
-        <v>416625.3354778894</v>
+        <v>416625.3354778896</v>
       </c>
       <c r="G6" t="n">
         <v>416625.3354778895</v>
       </c>
       <c r="H6" t="n">
-        <v>416625.3354778896</v>
+        <v>416625.3354778892</v>
       </c>
       <c r="I6" t="n">
-        <v>416625.3354778896</v>
+        <v>416625.3354778894</v>
       </c>
       <c r="J6" t="n">
         <v>249020.1576679068</v>
@@ -26549,10 +26551,10 @@
         <v>416625.3354778896</v>
       </c>
       <c r="L6" t="n">
-        <v>368331.3654696989</v>
+        <v>416625.3354778893</v>
       </c>
       <c r="M6" t="n">
-        <v>331570.3075423776</v>
+        <v>284018.0417489627</v>
       </c>
       <c r="N6" t="n">
         <v>416625.3354778895</v>
@@ -26561,7 +26563,7 @@
         <v>416625.3354778896</v>
       </c>
       <c r="P6" t="n">
-        <v>416625.3354778895</v>
+        <v>416625.3354778897</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>640.5848321000389</v>
+      </c>
+      <c r="C4" t="n">
+        <v>640.5848321000389</v>
+      </c>
+      <c r="D4" t="n">
         <v>640.584832100039</v>
-      </c>
-      <c r="C4" t="n">
-        <v>640.584832100039</v>
-      </c>
-      <c r="D4" t="n">
-        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26811,25 +26813,25 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
     </row>
   </sheetData>
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757592</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>433.9106082241344</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26993,7 +26995,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27009,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022537</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022537</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022537</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27385,7 +27387,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>145.8575595972803</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27394,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247044</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>31.81053164527168</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27439,10 +27441,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27537,25 +27539,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>124.6611469009637</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>161.190800060908</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27628,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>183.1857835501276</v>
+        <v>293.2827613708264</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,10 +27669,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27771,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>57.62510605011379</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27780,19 +27782,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>95.68000936470013</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27834,13 +27836,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27865,10 +27867,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>170.0286811191966</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>331.8898480104183</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28023,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>16.80660797742064</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,22 +28061,22 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>154.0094556349623</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -29326,7 +29328,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -30511,7 +30513,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>-5.621818412198717e-13</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -30645,7 +30647,7 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>4.147674796210292e-12</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
@@ -31045,28 +31047,28 @@
         <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
-        <v>144.7659768979355</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857144</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
         <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730006</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342226</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
         <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190646</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
         <v>405.5015080147052</v>
@@ -31081,7 +31083,7 @@
         <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,7 +31120,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.009120711347161</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
         <v>19.40387634380021</v>
@@ -31130,10 +31132,10 @@
         <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178439</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177245</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
         <v>509.0653662040589</v>
@@ -31142,7 +31144,7 @@
         <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405676</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
         <v>383.6539365378626</v>
@@ -31154,10 +31156,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997903</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000174</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
         <v>0.1321789941675764</v>
@@ -31203,19 +31205,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335773</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>195.694251168232</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L4" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>264.0341136849628</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
         <v>257.7559726067959</v>
@@ -31230,16 +31232,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759588</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069563</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024988</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31358,10 +31360,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31370,34 +31372,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,7 +31442,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31455,10 +31457,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31467,16 +31469,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J10" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31835,7 +31837,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
@@ -31844,7 +31846,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>246.9596973201446</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
@@ -31853,7 +31855,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>272.9327299394441</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214698</v>
@@ -31862,7 +31864,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32087,16 +32089,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>195.7502366106279</v>
+        <v>354.9153144485699</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>182.6892564418561</v>
@@ -32315,13 +32317,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>446.0127311990643</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
@@ -32330,13 +32332,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>134.7284881171895</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32461,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32552,37 +32554,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>351.1157147121651</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>359.7096985496632</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32789,37 +32791,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>146.0225991093084</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33026,37 +33028,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>279.2419622547062</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>171.7382405950817</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33263,37 +33265,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>379.4203056753705</v>
+        <v>620.1193660647493</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,13 +33490,13 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33503,34 +33505,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>577.7447198439388</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>171.7382405950798</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33737,37 +33739,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>175.6052721551106</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>602.8420149078237</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33974,37 +33976,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>175.6052721551095</v>
       </c>
       <c r="L39" t="n">
-        <v>279.2419622547062</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P40" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>338.1920576279218</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>322.8964653704897</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34442,13 +34444,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>146.0225991093089</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34457,19 +34459,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>361.7519118779092</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34699,28 +34701,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407339</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
         <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457279</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376316</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
         <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637951</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.2916633093991</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34778,19 +34780,19 @@
         <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434849</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378503</v>
+        <v>304.13479817678</v>
       </c>
       <c r="M3" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="O3" t="n">
-        <v>591.266852042218</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
         <v>249.6795291235323</v>
@@ -34854,7 +34856,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870597</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
@@ -34863,7 +34865,7 @@
         <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
-        <v>303.6179906468034</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
         <v>301.8881449860245</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091739</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K6" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820404</v>
+        <v>553.5225306839444</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
-        <v>514.7099619750469</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308545</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>222.503770695209</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>640.584832100039</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35483,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35492,7 +35494,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>108.4053175402704</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
@@ -35501,7 +35503,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>130.3364854949997</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071395</v>
@@ -35510,7 +35512,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35653,7 +35655,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
@@ -35735,16 +35737,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>61.77582919629761</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>37.00975247789211</v>
@@ -35890,7 +35892,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
@@ -35963,13 +35965,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>303.8786972770459</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
@@ -35978,13 +35980,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>0.7540807028592577</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36115,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,25 +36202,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>213.2742757378061</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>228.3679864663299</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,25 +36439,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>8.181160134949373</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,25 +36676,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>140.6875824748321</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>37.7638331807514</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462684</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,28 +36913,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>237.2862717533522</v>
+        <v>477.985332142731</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37151,25 +37153,25 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>439.1903400640646</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>37.76383318074956</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,28 +37387,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>37.76383318075158</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>471.5003028244903</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>37.76383318075054</v>
       </c>
       <c r="L39" t="n">
-        <v>140.6875824748321</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,31 +37855,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>196.0580237059035</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>188.9220579561594</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191356</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38090,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>8.181160134949948</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38105,19 +38107,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_10_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_10_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1685263.234010493</v>
+        <v>1681126.076760341</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.105228318</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,22 +712,22 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>174.8476533349621</v>
+        <v>147.9367604785729</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -828,13 +828,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>98.89148327532443</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -873,13 +873,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>125.0363540602926</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -904,19 +904,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>118.2649414021276</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>86.03589567880014</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -955,16 +955,16 @@
         <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1068,13 +1068,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>70.62659068010406</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,22 +1101,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>196.4017961483592</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54770277295399</v>
+        <v>332.7118459370989</v>
       </c>
       <c r="H8" t="n">
-        <v>130.9898714432088</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1189,10 +1189,10 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1293,10 +1293,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1305,13 +1305,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1347,16 +1347,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>25.49298124446069</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>71.70019975407486</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1369,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1527,16 +1527,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>117.4765410832877</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1545,10 +1545,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1767,13 +1767,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>23.6255456814127</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1782,7 +1782,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -2019,10 +2019,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,19 +2049,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>176.1811323375794</v>
       </c>
       <c r="V19" t="n">
-        <v>176.76214411214</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2244,7 +2244,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2253,10 +2253,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2481,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>68.17501931583824</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>192.8170508184371</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2715,19 +2715,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>101.6969570046971</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>99.9742741983392</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2803,7 +2803,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>409.8033385187866</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2955,19 +2955,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>55.52079624060472</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3034,7 +3034,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3204,10 +3204,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>108.9065924712593</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3426,10 +3426,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>20.43112068613203</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3441,10 +3441,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3666,19 +3666,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>26.05480806223734</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3903,13 +3903,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3918,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>9.146142788183983</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>105.6507867899569</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4134,16 +4134,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4152,7 +4152,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>74.95497330697962</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>877.9374416333219</v>
+        <v>1330.099343395678</v>
       </c>
       <c r="C2" t="n">
-        <v>877.9374416333219</v>
+        <v>1330.099343395678</v>
       </c>
       <c r="D2" t="n">
-        <v>877.9374416333219</v>
+        <v>1330.099343395678</v>
       </c>
       <c r="E2" t="n">
-        <v>877.9374416333219</v>
+        <v>944.3110907974333</v>
       </c>
       <c r="F2" t="n">
-        <v>466.9515368437143</v>
+        <v>533.3251860078258</v>
       </c>
       <c r="G2" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H2" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
         <v>51.24678656800311</v>
@@ -4360,22 +4360,22 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2261.02632967919</v>
+        <v>2288.209049736148</v>
       </c>
       <c r="U2" t="n">
-        <v>2007.445268943369</v>
+        <v>2034.627989000328</v>
       </c>
       <c r="V2" t="n">
-        <v>2007.445268943369</v>
+        <v>1703.565101656757</v>
       </c>
       <c r="W2" t="n">
-        <v>1654.676613673255</v>
+        <v>1703.565101656757</v>
       </c>
       <c r="X2" t="n">
-        <v>1654.676613673255</v>
+        <v>1330.099343395678</v>
       </c>
       <c r="Y2" t="n">
-        <v>1264.537281697444</v>
+        <v>1330.099343395678</v>
       </c>
     </row>
     <row r="3">
@@ -4391,46 +4391,46 @@
         <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488047</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310614</v>
+        <v>590.2049751143497</v>
       </c>
       <c r="L3" t="n">
-        <v>599.4122767260736</v>
+        <v>884.9085321458215</v>
       </c>
       <c r="M3" t="n">
-        <v>1233.591260505112</v>
+        <v>1248.170551105042</v>
       </c>
       <c r="N3" t="n">
-        <v>1867.770244284151</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O3" t="n">
-        <v>2199.840679460312</v>
+        <v>1967.526114878149</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>2214.708848710446</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4442,7 +4442,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>517.2629842544534</v>
+        <v>932.979501827063</v>
       </c>
       <c r="C4" t="n">
-        <v>517.2629842544534</v>
+        <v>764.0433188991561</v>
       </c>
       <c r="D4" t="n">
-        <v>367.1463448421176</v>
+        <v>613.9266794868204</v>
       </c>
       <c r="E4" t="n">
-        <v>219.2332512597245</v>
+        <v>466.0135859044273</v>
       </c>
       <c r="F4" t="n">
-        <v>219.2332512597245</v>
+        <v>319.1236384065169</v>
       </c>
       <c r="G4" t="n">
-        <v>51.24678656800311</v>
+        <v>151.1371737147955</v>
       </c>
       <c r="H4" t="n">
         <v>51.24678656800311</v>
@@ -4521,19 +4521,19 @@
         <v>1636.446120074497</v>
       </c>
       <c r="U4" t="n">
-        <v>1510.146772538848</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V4" t="n">
-        <v>1255.462284332961</v>
+        <v>1381.76163186861</v>
       </c>
       <c r="W4" t="n">
-        <v>966.0451142960009</v>
+        <v>1381.76163186861</v>
       </c>
       <c r="X4" t="n">
-        <v>738.0555633979835</v>
+        <v>1153.772080970593</v>
       </c>
       <c r="Y4" t="n">
-        <v>517.2629842544534</v>
+        <v>932.979501827063</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1033.854129889792</v>
+        <v>777.9561815953474</v>
       </c>
       <c r="C5" t="n">
-        <v>1033.854129889792</v>
+        <v>777.9561815953474</v>
       </c>
       <c r="D5" t="n">
-        <v>1033.854129889792</v>
+        <v>777.9561815953474</v>
       </c>
       <c r="E5" t="n">
-        <v>648.0658772915481</v>
+        <v>777.9561815953474</v>
       </c>
       <c r="F5" t="n">
-        <v>237.0799725019405</v>
+        <v>771.0106808461439</v>
       </c>
       <c r="G5" t="n">
-        <v>117.6204357321147</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I5" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4594,25 +4594,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926626</v>
+        <v>2475.434383270054</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.640120926626</v>
+        <v>2475.434383270054</v>
       </c>
       <c r="U5" t="n">
-        <v>2184.059060190806</v>
+        <v>2221.853322534234</v>
       </c>
       <c r="V5" t="n">
-        <v>2184.059060190806</v>
+        <v>1890.790435190663</v>
       </c>
       <c r="W5" t="n">
-        <v>2184.059060190806</v>
+        <v>1538.021779920549</v>
       </c>
       <c r="X5" t="n">
-        <v>1810.593301929726</v>
+        <v>1164.556021659469</v>
       </c>
       <c r="Y5" t="n">
-        <v>1420.453969953914</v>
+        <v>1164.556021659469</v>
       </c>
     </row>
     <row r="6">
@@ -4622,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I6" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>298.3188265310614</v>
+        <v>684.9695361605188</v>
       </c>
       <c r="L6" t="n">
-        <v>932.4978103100999</v>
+        <v>979.6730931919905</v>
       </c>
       <c r="M6" t="n">
-        <v>1480.485115687205</v>
+        <v>1342.93511215121</v>
       </c>
       <c r="N6" t="n">
-        <v>1867.77024428415</v>
+        <v>1730.220240748155</v>
       </c>
       <c r="O6" t="n">
-        <v>2199.840679460312</v>
+        <v>2062.290675924317</v>
       </c>
       <c r="P6" t="n">
-        <v>2447.023413292609</v>
+        <v>2309.473409756614</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4679,7 +4679,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4688,7 +4688,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>376.3550174069666</v>
+        <v>518.2127024906389</v>
       </c>
       <c r="C7" t="n">
-        <v>376.3550174069666</v>
+        <v>349.2765195627319</v>
       </c>
       <c r="D7" t="n">
-        <v>376.3550174069666</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="E7" t="n">
-        <v>228.4419238245735</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F7" t="n">
-        <v>228.4419238245735</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G7" t="n">
-        <v>157.1019332386097</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386097</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I7" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1337.233965749941</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1114.255484944676</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>825.137147448514</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V7" t="n">
-        <v>825.137147448514</v>
+        <v>1438.060467399387</v>
       </c>
       <c r="W7" t="n">
-        <v>825.137147448514</v>
+        <v>1148.643297362426</v>
       </c>
       <c r="X7" t="n">
-        <v>597.1475965504967</v>
+        <v>920.6537464644088</v>
       </c>
       <c r="Y7" t="n">
-        <v>376.3550174069666</v>
+        <v>699.8611673208786</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1785.600156360222</v>
+        <v>1977.695380320764</v>
       </c>
       <c r="C8" t="n">
-        <v>1416.637639419811</v>
+        <v>1608.732863380352</v>
       </c>
       <c r="D8" t="n">
-        <v>1058.37194081306</v>
+        <v>1250.467164773602</v>
       </c>
       <c r="E8" t="n">
-        <v>672.583688214816</v>
+        <v>864.6789121753575</v>
       </c>
       <c r="F8" t="n">
-        <v>261.5977834252084</v>
+        <v>453.6930073857499</v>
       </c>
       <c r="G8" t="n">
-        <v>249.9334371899014</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H8" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362818</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
         <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872924</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923563</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400156</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="V8" t="n">
-        <v>2562.339328400156</v>
+        <v>1977.695380320764</v>
       </c>
       <c r="W8" t="n">
-        <v>2562.339328400156</v>
+        <v>1977.695380320764</v>
       </c>
       <c r="X8" t="n">
-        <v>2562.339328400156</v>
+        <v>1977.695380320764</v>
       </c>
       <c r="Y8" t="n">
-        <v>2172.199996424344</v>
+        <v>1977.695380320764</v>
       </c>
     </row>
     <row r="9">
@@ -4859,52 +4859,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>458.7060632252731</v>
+        <v>614.5430248380227</v>
       </c>
       <c r="L9" t="n">
-        <v>1092.885047004312</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M9" t="n">
-        <v>1456.147065963532</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N9" t="n">
-        <v>1843.432194560477</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O9" t="n">
-        <v>2175.502629736639</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P9" t="n">
-        <v>2422.685363568936</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q9" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4916,7 +4916,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4925,7 +4925,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>769.5800553833139</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="C10" t="n">
-        <v>600.6438724554071</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="D10" t="n">
-        <v>600.6438724554071</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E10" t="n">
-        <v>452.7307788730139</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F10" t="n">
-        <v>305.8408313751036</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G10" t="n">
-        <v>305.8408313751036</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386098</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>1533.86271359008</v>
+        <v>1610.695633968981</v>
       </c>
       <c r="V10" t="n">
-        <v>1533.86271359008</v>
+        <v>1356.011145763094</v>
       </c>
       <c r="W10" t="n">
-        <v>1244.445543553119</v>
+        <v>1066.593975726134</v>
       </c>
       <c r="X10" t="n">
-        <v>1172.021099357084</v>
+        <v>1066.593975726134</v>
       </c>
       <c r="Y10" t="n">
-        <v>951.2285202135537</v>
+        <v>845.8013965826035</v>
       </c>
     </row>
     <row r="11">
@@ -5038,25 +5038,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5117,31 +5117,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1963.765362972544</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5275,13 +5275,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5354,31 +5354,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5512,7 +5512,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111715</v>
@@ -5521,13 +5521,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5591,31 +5591,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1963.765362972544</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263527</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356195</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232838</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T19" t="n">
-        <v>2197.062545487567</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U19" t="n">
-        <v>2197.062545487567</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V19" t="n">
-        <v>2018.514925172274</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W19" t="n">
-        <v>1729.097755135313</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X19" t="n">
-        <v>1501.108204237296</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y19" t="n">
-        <v>1280.315625093766</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="20">
@@ -5740,40 +5740,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5843,13 +5843,13 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1896.176478190824</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5910,52 +5910,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5980,19 +5980,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6001,16 +6001,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6071,22 +6071,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>251.5626541092265</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>746.8882603249853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1344.266747951537</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951537</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.8993044876693</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C25" t="n">
-        <v>411.9631215597624</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D25" t="n">
-        <v>411.9631215597624</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E25" t="n">
-        <v>411.9631215597624</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F25" t="n">
-        <v>411.9631215597624</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>244.7670222746423</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614391</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.547769317909</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="26">
@@ -6214,46 +6214,46 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
         <v>4405.252601474784</v>
@@ -6262,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,28 +6299,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1336.167399417937</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1963.765362972544</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2757.723669558406</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>2588.787486630499</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D28" t="n">
-        <v>2438.670847218163</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E28" t="n">
-        <v>2337.686731866305</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>2337.686731866305</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650996</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>4440.932614305901</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>4221.331149328842</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>3932.25592267304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>3677.571434467153</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>3388.154264430193</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>3160.164713532175</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>2939.372134388645</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6442,7 +6442,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6451,22 +6451,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6481,31 +6481,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,31 +6536,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>716.6687843969303</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>763.7541388327652</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>594.8179559048583</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>444.7013164925226</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>296.7882229101294</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>149.8982754122191</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797189</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1683.601903741513</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1394.184733704552</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1166.195182806535</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>945.4026036630049</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6691,31 +6691,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C33" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D33" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G33" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>2381.235169913446</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>2381.235169913446</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>2876.560776129205</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>3473.939263755757</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>4101.537227310364</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>4653.446957549651</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S33" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T33" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U33" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V33" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W33" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X33" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y33" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6931,37 +6931,37 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
         <v>4606.285157492578</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>493.2161050975141</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>175.9033664000583</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7153,34 +7153,34 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
         <v>2206.55866301478</v>
@@ -7192,31 +7192,31 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,25 +7247,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756267</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>280.8495004245697</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>776.1751066403286</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2824.769373306005</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>2655.833190378098</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>2505.716550965762</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>2479.398563024108</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>2479.398563024108</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>2479.398563024108</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
-        <v>2337.686731866306</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>2337.686731866306</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>2417.92275029663</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>2679.612012822169</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>3070.010606998109</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>3492.020309729144</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>3909.430181389152</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>4278.959462098137</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>4571.634917671696</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>4690.833152398595</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>4690.833152398595</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>4507.9783180535</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>4288.376853076441</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>3999.301626420639</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>3744.617138214752</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>3455.199968177792</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>3227.210417279774</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>3006.417838136244</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7390,7 +7390,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7399,61 +7399,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,31 +7484,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273909</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1896.176478190824</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797191</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797788</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910813</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570822</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279807</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853365</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580265</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2254.869721166297</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="44">
@@ -7627,25 +7627,25 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362693</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797191</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111717</v>
@@ -7669,28 +7669,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7712,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7721,16 +7721,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273908</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7742,13 +7742,13 @@
         <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>869.6905094135296</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>700.7543264856228</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>550.637687073287</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2371.250989330786</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2151.649524353727</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1862.574297697925</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1607.889809492038</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1318.472639455077</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1090.48308855706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>869.6905094135296</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8057,19 +8057,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>168.7434581780643</v>
       </c>
       <c r="L3" t="n">
-        <v>6.454437538929767</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>273.6534998179984</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>249.3877325071649</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -8078,10 +8078,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154988</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8294,16 +8294,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>342.9044714621886</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>186.5911984019039</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8315,10 +8315,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>138.9393975111062</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154988</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8534,10 +8534,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>35.91627445172418</v>
+        <v>193.327346787835</v>
       </c>
       <c r="L9" t="n">
-        <v>342.9044714621887</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8552,10 +8552,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23415,16 +23415,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>28.95742156328144</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23655,13 +23655,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>122.8084169651565</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23670,7 +23670,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,19 +23937,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>110.0033420516648</v>
       </c>
       <c r="V19" t="n">
-        <v>75.37549921168795</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24132,7 +24132,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>65.54986409393022</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24141,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>72.11969353038562</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>32.89260457060001</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24603,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>65.54986409393075</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>46.45968844822997</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>110.0033420516641</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>72.11969353038532</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25314,10 +25314,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>146.8157004124958</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>120.3791545843318</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I40" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25791,13 +25791,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>57.22910392193768</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>180.5336875992872</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26022,16 +26022,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26040,7 +26040,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>106.071312694665</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>893960.6993091302</v>
+        <v>893960.6993091301</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>893960.6993091302</v>
+        <v>893960.6993091301</v>
       </c>
     </row>
     <row r="7">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>893960.6993091302</v>
+        <v>893960.6993091301</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>893960.6993091302</v>
+        <v>893960.6993091301</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>893960.6993091302</v>
+        <v>893960.6993091301</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>893960.6993091302</v>
+        <v>893960.6993091301</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>893960.6993091302</v>
+        <v>893960.6993091301</v>
       </c>
     </row>
   </sheetData>
@@ -26313,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533677.1504117842</v>
+        <v>533677.150411784</v>
       </c>
       <c r="C2" t="n">
         <v>533677.1504117842</v>
       </c>
       <c r="D2" t="n">
-        <v>533677.1504117842</v>
+        <v>533677.1504117843</v>
       </c>
       <c r="E2" t="n">
         <v>524645.289798504</v>
       </c>
       <c r="F2" t="n">
-        <v>524645.2897985041</v>
+        <v>524645.2897985037</v>
       </c>
       <c r="G2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="H2" t="n">
         <v>524645.2897985039</v>
@@ -26337,25 +26337,25 @@
         <v>524645.2897985039</v>
       </c>
       <c r="J2" t="n">
-        <v>524645.2897985039</v>
+        <v>524645.2897985037</v>
       </c>
       <c r="K2" t="n">
-        <v>524645.2897985041</v>
+        <v>524645.289798504</v>
       </c>
       <c r="L2" t="n">
         <v>524645.2897985039</v>
       </c>
       <c r="M2" t="n">
+        <v>524645.289798504</v>
+      </c>
+      <c r="N2" t="n">
+        <v>524645.2897985041</v>
+      </c>
+      <c r="O2" t="n">
         <v>524645.2897985039</v>
       </c>
-      <c r="N2" t="n">
-        <v>524645.2897985042</v>
-      </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>524645.289798504</v>
-      </c>
-      <c r="P2" t="n">
-        <v>524645.2897985041</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245457</v>
+        <v>507485.441624546</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,13 +26383,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26401,7 +26401,7 @@
         <v>132607.2937289267</v>
       </c>
       <c r="N3" t="n">
-        <v>1.569592313899193e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26420,46 +26420,46 @@
         <v>131909.7268316249</v>
       </c>
       <c r="C4" t="n">
-        <v>131909.7268316249</v>
+        <v>131909.726831625</v>
       </c>
       <c r="D4" t="n">
-        <v>131909.7268316249</v>
+        <v>131909.726831625</v>
       </c>
       <c r="E4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="F4" t="n">
         <v>6897.42449670736</v>
       </c>
       <c r="G4" t="n">
+        <v>6897.424496707359</v>
+      </c>
+      <c r="H4" t="n">
+        <v>6897.424496707359</v>
+      </c>
+      <c r="I4" t="n">
+        <v>6897.424496707359</v>
+      </c>
+      <c r="J4" t="n">
         <v>6897.42449670736</v>
       </c>
-      <c r="H4" t="n">
-        <v>6897.424496707361</v>
-      </c>
-      <c r="I4" t="n">
-        <v>6897.42449670736</v>
-      </c>
-      <c r="J4" t="n">
-        <v>6897.424496707305</v>
-      </c>
       <c r="K4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="L4" t="n">
-        <v>6897.424496707361</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="M4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="N4" t="n">
-        <v>6897.424496707361</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="O4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="P4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707359</v>
       </c>
     </row>
     <row r="5">
@@ -26472,10 +26472,10 @@
         <v>92937.77243984472</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26505,7 +26505,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="N5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="O5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-805922.1324356054</v>
+        <v>-805922.1324356056</v>
       </c>
       <c r="C6" t="n">
-        <v>308829.6511403145</v>
+        <v>308829.6511403148</v>
       </c>
       <c r="D6" t="n">
-        <v>308829.6511403145</v>
+        <v>308829.6511403146</v>
       </c>
       <c r="E6" t="n">
-        <v>-90860.10614665622</v>
+        <v>-91207.48540101339</v>
       </c>
       <c r="F6" t="n">
-        <v>416625.3354778896</v>
+        <v>416277.9562235323</v>
       </c>
       <c r="G6" t="n">
-        <v>416625.3354778895</v>
+        <v>416277.9562235324</v>
       </c>
       <c r="H6" t="n">
-        <v>416625.3354778892</v>
+        <v>416277.9562235324</v>
       </c>
       <c r="I6" t="n">
-        <v>416625.3354778894</v>
+        <v>416277.9562235324</v>
       </c>
       <c r="J6" t="n">
-        <v>249020.1576679068</v>
+        <v>248672.7784135498</v>
       </c>
       <c r="K6" t="n">
-        <v>416625.3354778896</v>
+        <v>416277.9562235326</v>
       </c>
       <c r="L6" t="n">
-        <v>416625.3354778893</v>
+        <v>416277.9562235324</v>
       </c>
       <c r="M6" t="n">
-        <v>284018.0417489627</v>
+        <v>283670.6624946059</v>
       </c>
       <c r="N6" t="n">
-        <v>416625.3354778895</v>
+        <v>416277.9562235327</v>
       </c>
       <c r="O6" t="n">
-        <v>416625.3354778896</v>
+        <v>416277.9562235324</v>
       </c>
       <c r="P6" t="n">
-        <v>416625.3354778897</v>
+        <v>416277.9562235326</v>
       </c>
     </row>
   </sheetData>
@@ -26740,10 +26740,10 @@
         <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26795,7 +26795,7 @@
         <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26813,25 +26813,25 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241344</v>
+        <v>433.9106082241346</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26995,7 +26995,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996094</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996094</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27387,7 +27387,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27399,7 +27399,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,22 +27432,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>31.81053164527168</v>
+        <v>58.72142450166081</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27539,7 +27539,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27548,13 +27548,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>48.36002587980441</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -27593,13 +27593,13 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>161.190800060908</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27624,19 +27624,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>293.2827613708264</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>37.41631971999423</v>
       </c>
       <c r="T5" t="n">
         <v>206.6581849802338</v>
@@ -27675,16 +27675,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27788,13 +27788,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>95.68000936470013</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,22 +27821,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>55.73584717546876</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27867,10 +27867,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>78.83585683585511</v>
       </c>
       <c r="H8" t="n">
-        <v>170.0286811191966</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27909,10 +27909,10 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -27921,7 +27921,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28013,10 +28013,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28025,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
         <v>194.6624603617375</v>
@@ -28067,16 +28067,16 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>260.7341728767399</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>154.0094556349623</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -29328,7 +29328,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -30513,7 +30513,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>-5.621818412198717e-13</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -30647,7 +30647,7 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>4.147674796210292e-12</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31360,10 +31360,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31372,34 +31372,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31442,7 +31442,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31457,10 +31457,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31469,16 +31469,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31597,10 +31597,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31609,34 +31609,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31679,7 +31679,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31694,10 +31694,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31706,16 +31706,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31837,13 +31837,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473072</v>
@@ -31855,16 +31855,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>272.9327299394441</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32074,7 +32074,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32092,16 +32092,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>354.9153144485699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32311,13 +32311,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32329,16 +32329,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>134.7284881171895</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32554,37 +32554,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>359.7096985496632</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32791,37 +32791,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>146.0225991093084</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33028,22 +33028,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>171.7382405950817</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>620.1193660647493</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,34 +33490,34 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>171.7382405950798</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>602.8420149078237</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,31 +33964,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>175.6052721551095</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437245</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P40" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,37 +34213,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>338.1920576279218</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34462,7 +34462,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>361.7519118779092</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34471,7 +34471,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34777,19 +34777,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>355.3309544215491</v>
       </c>
       <c r="L3" t="n">
-        <v>304.13479817678</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>640.5848321000389</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>640.5848321000389</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
         <v>335.4246819961231</v>
@@ -34798,10 +34798,10 @@
         <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L6" t="n">
-        <v>640.5848321000389</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>553.5225306839444</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308546</v>
+        <v>255.4201198419607</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313263</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K9" t="n">
-        <v>222.503770695209</v>
+        <v>379.9148430313198</v>
       </c>
       <c r="L9" t="n">
-        <v>640.584832100039</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977094</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35427,7 +35427,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q11" t="n">
         <v>371.5675334924728</v>
@@ -35485,13 +35485,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
         <v>500.328895167433</v>
@@ -35503,16 +35503,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>130.3364854949997</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35655,7 +35655,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35740,16 +35740,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>220.9409070342396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35892,7 +35892,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
@@ -35959,13 +35959,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35977,16 +35977,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>0.7540807028592577</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36205,22 +36205,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>228.3679864663299</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,25 +36439,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>8.181160134949373</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,22 +36676,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>37.7638331807514</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462684</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,31 +36907,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>477.985332142731</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,28 +37144,28 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>37.76383318074956</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>471.5003028244903</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,25 +37618,25 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>37.76383318075054</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992801</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,22 +37864,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>196.0580237059035</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191356</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38110,7 +38110,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>219.1556674334648</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38119,7 +38119,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_10_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_10_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1681126.076760341</v>
+        <v>1682886.607063127</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12383593.4843585</v>
+        <v>12383593.48435851</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>50.5916768719309</v>
       </c>
       <c r="T2" t="n">
-        <v>147.9367604785729</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
@@ -721,13 +721,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -834,10 +834,10 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>98.89148327532443</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>98.98102224012344</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -904,16 +904,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>86.03589567880014</v>
+        <v>5.124078168945129</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705011</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>17.42775815369529</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>196.4017961483592</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1122,7 +1122,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>332.7118459370989</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>222.9684245751954</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1189,13 +1189,13 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705011</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1293,7 +1293,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1305,7 +1305,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>50.98074812542855</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1347,16 +1347,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>25.49298124446069</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1527,16 +1527,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>139.1886739667897</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>117.4765410832877</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1545,10 +1545,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1584,10 +1584,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1609,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1767,25 +1767,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>110.0177171766861</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>23.6255456814127</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2007,19 +2007,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>176.1811323375794</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>161.355549430153</v>
       </c>
     </row>
     <row r="20">
@@ -2244,19 +2244,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2295,7 +2295,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>220.864501724972</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2487,13 +2487,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>19.91555826189057</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2526,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>192.8170508184371</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2617,7 +2617,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2715,25 +2715,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>101.6969570046971</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2772,13 +2772,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>130.7812597870352</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2964,10 +2964,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3034,7 +3034,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>41.33703994142957</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3204,10 +3204,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3429,19 +3429,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3480,7 +3480,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>160.6789846282037</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3660,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>41.33703994142957</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3678,10 +3678,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3906,10 +3906,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3918,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>105.6507867899569</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>178.8757728051418</v>
       </c>
     </row>
     <row r="44">
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1330.099343395678</v>
+        <v>797.0848490996759</v>
       </c>
       <c r="C2" t="n">
-        <v>1330.099343395678</v>
+        <v>428.1223321592641</v>
       </c>
       <c r="D2" t="n">
-        <v>1330.099343395678</v>
+        <v>69.85663355251366</v>
       </c>
       <c r="E2" t="n">
-        <v>944.3110907974333</v>
+        <v>69.85663355251366</v>
       </c>
       <c r="F2" t="n">
-        <v>533.3251860078258</v>
+        <v>62.91113280331018</v>
       </c>
       <c r="G2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J2" t="n">
         <v>187.5281822362819</v>
@@ -4348,34 +4348,34 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q2" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R2" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926626</v>
+        <v>2511.236624489115</v>
       </c>
       <c r="T2" t="n">
-        <v>2288.209049736148</v>
+        <v>2511.236624489115</v>
       </c>
       <c r="U2" t="n">
-        <v>2034.627989000328</v>
+        <v>2257.655563753294</v>
       </c>
       <c r="V2" t="n">
-        <v>1703.565101656757</v>
+        <v>1926.592676409723</v>
       </c>
       <c r="W2" t="n">
-        <v>1703.565101656757</v>
+        <v>1573.824021139609</v>
       </c>
       <c r="X2" t="n">
-        <v>1330.099343395678</v>
+        <v>1573.824021139609</v>
       </c>
       <c r="Y2" t="n">
-        <v>1330.099343395678</v>
+        <v>1183.684689163798</v>
       </c>
     </row>
     <row r="3">
@@ -4391,49 +4391,49 @@
         <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G3" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J3" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>590.2049751143497</v>
+        <v>507.2413987429759</v>
       </c>
       <c r="L3" t="n">
-        <v>884.9085321458215</v>
+        <v>801.9449557744477</v>
       </c>
       <c r="M3" t="n">
-        <v>1248.170551105042</v>
+        <v>1165.206974733668</v>
       </c>
       <c r="N3" t="n">
-        <v>1635.455679701987</v>
+        <v>1552.492103330613</v>
       </c>
       <c r="O3" t="n">
-        <v>1967.526114878149</v>
+        <v>1884.562538506775</v>
       </c>
       <c r="P3" t="n">
-        <v>2214.708848710446</v>
+        <v>2447.02341329261</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="R3" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S3" t="n">
         <v>2426.617474780096</v>
@@ -4442,7 +4442,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>932.979501827063</v>
+        <v>1087.683159487371</v>
       </c>
       <c r="C4" t="n">
-        <v>764.0433188991561</v>
+        <v>918.7469765594642</v>
       </c>
       <c r="D4" t="n">
-        <v>613.9266794868204</v>
+        <v>768.6303371471284</v>
       </c>
       <c r="E4" t="n">
-        <v>466.0135859044273</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="F4" t="n">
-        <v>319.1236384065169</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G4" t="n">
-        <v>151.1371737147955</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H4" t="n">
-        <v>51.24678656800311</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J4" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312202</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020476</v>
@@ -4497,7 +4497,7 @@
         <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
@@ -4509,31 +4509,31 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>1536.465289528918</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074497</v>
+        <v>1536.465289528918</v>
       </c>
       <c r="T4" t="n">
-        <v>1636.446120074497</v>
+        <v>1536.465289528918</v>
       </c>
       <c r="U4" t="n">
-        <v>1636.446120074497</v>
+        <v>1536.465289528918</v>
       </c>
       <c r="V4" t="n">
-        <v>1381.76163186861</v>
+        <v>1536.465289528918</v>
       </c>
       <c r="W4" t="n">
-        <v>1381.76163186861</v>
+        <v>1536.465289528918</v>
       </c>
       <c r="X4" t="n">
-        <v>1153.772080970593</v>
+        <v>1308.475738630901</v>
       </c>
       <c r="Y4" t="n">
-        <v>932.979501827063</v>
+        <v>1087.683159487371</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>777.9561815953474</v>
+        <v>859.685290191162</v>
       </c>
       <c r="C5" t="n">
-        <v>777.9561815953474</v>
+        <v>859.685290191162</v>
       </c>
       <c r="D5" t="n">
-        <v>777.9561815953474</v>
+        <v>859.685290191162</v>
       </c>
       <c r="E5" t="n">
-        <v>777.9561815953474</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="F5" t="n">
-        <v>771.0106808461439</v>
+        <v>62.9111328033102</v>
       </c>
       <c r="G5" t="n">
-        <v>355.3059305704328</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="H5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362813</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816086</v>
+        <v>442.517185281608</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923563</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764999</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723852</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400157</v>
       </c>
       <c r="S5" t="n">
-        <v>2475.434383270054</v>
+        <v>2557.163491865869</v>
       </c>
       <c r="T5" t="n">
-        <v>2475.434383270054</v>
+        <v>2557.163491865869</v>
       </c>
       <c r="U5" t="n">
-        <v>2221.853322534234</v>
+        <v>2303.582431130048</v>
       </c>
       <c r="V5" t="n">
-        <v>1890.790435190663</v>
+        <v>1972.519543786478</v>
       </c>
       <c r="W5" t="n">
-        <v>1538.021779920549</v>
+        <v>1619.750888516364</v>
       </c>
       <c r="X5" t="n">
-        <v>1164.556021659469</v>
+        <v>1246.285130255284</v>
       </c>
       <c r="Y5" t="n">
-        <v>1164.556021659469</v>
+        <v>1246.285130255284</v>
       </c>
     </row>
     <row r="6">
@@ -4640,31 +4640,31 @@
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370161</v>
+        <v>238.4273302370162</v>
       </c>
       <c r="K6" t="n">
-        <v>684.9695361605188</v>
+        <v>614.5430248380218</v>
       </c>
       <c r="L6" t="n">
-        <v>979.6730931919905</v>
+        <v>909.2465818694936</v>
       </c>
       <c r="M6" t="n">
-        <v>1342.93511215121</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N6" t="n">
-        <v>1730.220240748155</v>
+        <v>1659.793729425659</v>
       </c>
       <c r="O6" t="n">
-        <v>2062.290675924317</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P6" t="n">
-        <v>2309.473409756614</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>518.2127024906389</v>
+        <v>682.706446103393</v>
       </c>
       <c r="C7" t="n">
-        <v>349.2765195627319</v>
+        <v>513.7702631754861</v>
       </c>
       <c r="D7" t="n">
-        <v>199.1598801503962</v>
+        <v>363.6536237631503</v>
       </c>
       <c r="E7" t="n">
-        <v>51.24678656800311</v>
+        <v>215.7405301807572</v>
       </c>
       <c r="F7" t="n">
-        <v>51.24678656800311</v>
+        <v>68.85058268284686</v>
       </c>
       <c r="G7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312206</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020477</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="T7" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="U7" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="V7" t="n">
-        <v>1438.060467399387</v>
+        <v>1381.761631868611</v>
       </c>
       <c r="W7" t="n">
-        <v>1148.643297362426</v>
+        <v>1092.34446183165</v>
       </c>
       <c r="X7" t="n">
-        <v>920.6537464644088</v>
+        <v>864.3549109336327</v>
       </c>
       <c r="Y7" t="n">
-        <v>699.8611673208786</v>
+        <v>864.3549109336327</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1977.695380320764</v>
+        <v>1878.507785786471</v>
       </c>
       <c r="C8" t="n">
-        <v>1608.732863380352</v>
+        <v>1509.54526884606</v>
       </c>
       <c r="D8" t="n">
-        <v>1250.467164773602</v>
+        <v>1151.279570239309</v>
       </c>
       <c r="E8" t="n">
-        <v>864.6789121753575</v>
+        <v>765.4913176410651</v>
       </c>
       <c r="F8" t="n">
-        <v>453.6930073857499</v>
+        <v>354.5054128514575</v>
       </c>
       <c r="G8" t="n">
-        <v>117.6204357321147</v>
+        <v>342.8410666161504</v>
       </c>
       <c r="H8" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J8" t="n">
         <v>187.5281822362817</v>
@@ -4813,43 +4813,43 @@
         <v>795.755353087292</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923563</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="U8" t="n">
-        <v>2308.758267664335</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="V8" t="n">
-        <v>1977.695380320764</v>
+        <v>2231.276441056586</v>
       </c>
       <c r="W8" t="n">
-        <v>1977.695380320764</v>
+        <v>1878.507785786471</v>
       </c>
       <c r="X8" t="n">
-        <v>1977.695380320764</v>
+        <v>1878.507785786471</v>
       </c>
       <c r="Y8" t="n">
-        <v>1977.695380320764</v>
+        <v>1878.507785786471</v>
       </c>
     </row>
     <row r="9">
@@ -4859,43 +4859,43 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370161</v>
+        <v>168.0008189145188</v>
       </c>
       <c r="K9" t="n">
-        <v>614.5430248380227</v>
+        <v>614.5430248380218</v>
       </c>
       <c r="L9" t="n">
-        <v>909.2465818694943</v>
+        <v>909.2465818694936</v>
       </c>
       <c r="M9" t="n">
         <v>1272.508600828714</v>
       </c>
       <c r="N9" t="n">
-        <v>1659.79372942566</v>
+        <v>1659.793729425659</v>
       </c>
       <c r="O9" t="n">
         <v>1991.864164601821</v>
@@ -4916,7 +4916,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4925,7 +4925,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>664.1529317523638</v>
+        <v>716.5983551657498</v>
       </c>
       <c r="C10" t="n">
-        <v>664.1529317523638</v>
+        <v>547.6621722378429</v>
       </c>
       <c r="D10" t="n">
-        <v>514.036292340028</v>
+        <v>397.5455328255072</v>
       </c>
       <c r="E10" t="n">
-        <v>366.1231987576349</v>
+        <v>249.632439243114</v>
       </c>
       <c r="F10" t="n">
-        <v>219.2332512597245</v>
+        <v>102.7424917452037</v>
       </c>
       <c r="G10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="H10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312205</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020477</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="U10" t="n">
-        <v>1610.695633968981</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="V10" t="n">
-        <v>1356.011145763094</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="W10" t="n">
-        <v>1066.593975726134</v>
+        <v>1347.028950037537</v>
       </c>
       <c r="X10" t="n">
-        <v>1066.593975726134</v>
+        <v>1119.03939913952</v>
       </c>
       <c r="Y10" t="n">
-        <v>845.8013965826035</v>
+        <v>898.2468199959895</v>
       </c>
     </row>
     <row r="11">
@@ -5023,37 +5023,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
         <v>3640.422291068009</v>
@@ -5117,28 +5117,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793925</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N12" t="n">
-        <v>2299.457522348532</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>695.5020655703109</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C13" t="n">
-        <v>526.5658826424041</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D13" t="n">
-        <v>526.5658826424041</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098310023</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1688.043910473548</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>1460.054359575531</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>1239.261780432001</v>
       </c>
     </row>
     <row r="14">
@@ -5275,13 +5275,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5290,16 +5290,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5354,28 +5354,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>842.6091804069456</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348532</v>
+        <v>1470.207143961552</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2022.116874200839</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2445.740023695907</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>513.8536007400712</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D16" t="n">
-        <v>513.8536007400712</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E16" t="n">
-        <v>489.9894131830887</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F16" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5497,40 +5497,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5591,13 +5591,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
         <v>1074.481071167373</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>874.8686257536381</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>705.9324428257312</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D19" t="n">
-        <v>555.8158034133954</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5673,52 +5673,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>1056.517090583878</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5752,13 +5752,13 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
         <v>2206.558663014778</v>
@@ -5767,7 +5767,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5828,22 +5828,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1789.822296052219</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1500.405126015258</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="23">
@@ -5977,10 +5977,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6065,22 +6065,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1016.58045691144</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C25" t="n">
-        <v>847.6442739835331</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D25" t="n">
-        <v>697.5276345711974</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E25" t="n">
-        <v>549.6145409888043</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6174,25 +6174,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>2446.96308358026</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>2157.887856924458</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1903.203368718571</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1613.786198681611</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>1419.02150088521</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y25" t="n">
-        <v>1198.22892174168</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="26">
@@ -6214,61 +6214,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,10 +6299,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J27" t="n">
         <v>243.4633055756266</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>931.4710609784064</v>
       </c>
       <c r="C28" t="n">
-        <v>411.1294017454277</v>
+        <v>762.5348780504995</v>
       </c>
       <c r="D28" t="n">
-        <v>261.0127623330919</v>
+        <v>612.4182386381638</v>
       </c>
       <c r="E28" t="n">
-        <v>261.0127623330919</v>
+        <v>464.5051450557706</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1466.014387565343</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="29">
@@ -6451,22 +6451,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6612,7 +6612,7 @@
         <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6688,16 +6688,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
@@ -6706,16 +6706,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6776,22 +6776,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6928,28 +6928,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075796</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6958,7 +6958,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="38">
@@ -7156,43 +7156,43 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
         <v>4562.265728852255</v>
@@ -7250,22 +7250,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7399,34 +7399,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7487,22 +7487,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263527</v>
+        <v>803.8641191832228</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356195</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232838</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T43" t="n">
-        <v>2379.917379832663</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U43" t="n">
-        <v>2273.199413378161</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V43" t="n">
-        <v>2018.514925172274</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W43" t="n">
-        <v>1729.097755135313</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X43" t="n">
-        <v>1501.108204237296</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y43" t="n">
-        <v>1280.315625093766</v>
+        <v>985.5125840134625</v>
       </c>
     </row>
     <row r="44">
@@ -7639,31 +7639,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>168.7434581780643</v>
+        <v>211.032901224156</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8075,13 +8075,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154985</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>193.3273467878338</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8315,10 +8315,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>138.9393975111062</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154984</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>54.95314511566406</v>
       </c>
       <c r="K9" t="n">
-        <v>193.327346787835</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8555,7 +8555,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154984</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8689,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>-1.477928890381008e-12</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23415,16 +23415,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>40.64330621514762</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>28.95742156328144</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23472,10 +23472,10 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>57.22910392194177</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>122.8084169651565</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>110.0033420516648</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>57.22910392194177</v>
       </c>
     </row>
     <row r="20">
@@ -24132,19 +24132,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>4.845153664065123</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24375,13 +24375,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>145.6085800303783</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24414,10 +24414,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>32.89260457060001</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24603,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>65.54986409393075</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24660,13 +24660,13 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>94.92839560200198</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24852,10 +24852,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25317,19 +25317,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25368,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>125.5054897610405</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25548,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>107.2784330767828</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25794,10 +25794,10 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>180.5336875992872</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>39.708880546953</v>
       </c>
     </row>
     <row r="44">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>893960.6993091302</v>
+        <v>893960.6993091301</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>893960.6993091301</v>
+        <v>893960.6993091302</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>893960.6993091301</v>
+        <v>893960.6993091302</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>893960.6993091301</v>
+        <v>893960.6993091302</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>893960.6993091301</v>
+        <v>893960.6993091302</v>
       </c>
     </row>
     <row r="15">
@@ -26316,16 +26316,16 @@
         <v>533677.150411784</v>
       </c>
       <c r="C2" t="n">
-        <v>533677.1504117842</v>
+        <v>533677.1504117843</v>
       </c>
       <c r="D2" t="n">
-        <v>533677.1504117843</v>
+        <v>533677.1504117844</v>
       </c>
       <c r="E2" t="n">
+        <v>524645.2897985039</v>
+      </c>
+      <c r="F2" t="n">
         <v>524645.289798504</v>
-      </c>
-      <c r="F2" t="n">
-        <v>524645.2897985037</v>
       </c>
       <c r="G2" t="n">
         <v>524645.2897985039</v>
@@ -26334,22 +26334,22 @@
         <v>524645.2897985039</v>
       </c>
       <c r="I2" t="n">
+        <v>524645.2897985041</v>
+      </c>
+      <c r="J2" t="n">
         <v>524645.2897985039</v>
-      </c>
-      <c r="J2" t="n">
-        <v>524645.2897985037</v>
       </c>
       <c r="K2" t="n">
         <v>524645.289798504</v>
       </c>
       <c r="L2" t="n">
+        <v>524645.289798504</v>
+      </c>
+      <c r="M2" t="n">
         <v>524645.2897985039</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>524645.289798504</v>
-      </c>
-      <c r="N2" t="n">
-        <v>524645.2897985041</v>
       </c>
       <c r="O2" t="n">
         <v>524645.2897985039</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.441624546</v>
+        <v>507485.4416245457</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289267</v>
+        <v>132607.2937289266</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.540129233035259e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>131909.726831625</v>
+      </c>
+      <c r="C4" t="n">
         <v>131909.7268316249</v>
       </c>
-      <c r="C4" t="n">
-        <v>131909.726831625</v>
-      </c>
       <c r="D4" t="n">
-        <v>131909.726831625</v>
+        <v>131909.7268316249</v>
       </c>
       <c r="E4" t="n">
-        <v>6897.424496707359</v>
+        <v>6897.424496707331</v>
       </c>
       <c r="F4" t="n">
         <v>6897.42449670736</v>
       </c>
       <c r="G4" t="n">
-        <v>6897.424496707359</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="H4" t="n">
         <v>6897.424496707359</v>
@@ -26441,7 +26441,7 @@
         <v>6897.424496707359</v>
       </c>
       <c r="J4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="K4" t="n">
         <v>6897.424496707359</v>
@@ -26456,7 +26456,7 @@
         <v>6897.424496707359</v>
       </c>
       <c r="O4" t="n">
-        <v>6897.424496707359</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="P4" t="n">
         <v>6897.424496707359</v>
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984475</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26524,46 +26524,46 @@
         <v>-805922.1324356056</v>
       </c>
       <c r="C6" t="n">
+        <v>308829.6511403147</v>
+      </c>
+      <c r="D6" t="n">
         <v>308829.6511403148</v>
       </c>
-      <c r="D6" t="n">
-        <v>308829.6511403146</v>
-      </c>
       <c r="E6" t="n">
-        <v>-91207.48540101339</v>
+        <v>-90894.84407209195</v>
       </c>
       <c r="F6" t="n">
-        <v>416277.9562235323</v>
+        <v>416590.5975524538</v>
       </c>
       <c r="G6" t="n">
-        <v>416277.9562235324</v>
+        <v>416590.5975524537</v>
       </c>
       <c r="H6" t="n">
-        <v>416277.9562235324</v>
+        <v>416590.5975524538</v>
       </c>
       <c r="I6" t="n">
-        <v>416277.9562235324</v>
+        <v>416590.5975524539</v>
       </c>
       <c r="J6" t="n">
-        <v>248672.7784135498</v>
+        <v>248985.419742471</v>
       </c>
       <c r="K6" t="n">
-        <v>416277.9562235326</v>
+        <v>416590.5975524538</v>
       </c>
       <c r="L6" t="n">
-        <v>416277.9562235324</v>
+        <v>416590.5975524538</v>
       </c>
       <c r="M6" t="n">
-        <v>283670.6624946059</v>
+        <v>283983.3038235271</v>
       </c>
       <c r="N6" t="n">
-        <v>416277.9562235327</v>
+        <v>416590.5975524538</v>
       </c>
       <c r="O6" t="n">
-        <v>416277.9562235324</v>
+        <v>416590.5975524536</v>
       </c>
       <c r="P6" t="n">
-        <v>416277.9562235326</v>
+        <v>416590.5975524539</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175396</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175396</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.584832100039</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000392</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26813,7 +26813,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241346</v>
+        <v>433.9106082241344</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26998,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.584832100039</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996093</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000392</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996093</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.584832100039</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996093</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>72.86053852686345</v>
       </c>
       <c r="T2" t="n">
-        <v>58.72142450166081</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27441,13 +27441,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27554,10 +27554,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>48.36002587980441</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>2.576550179450166</v>
       </c>
       <c r="S4" t="n">
         <v>194.6624603617375</v>
@@ -27596,7 +27596,7 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27624,19 +27624,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
       </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>37.41631971999423</v>
+        <v>118.3281372298492</v>
       </c>
       <c r="T5" t="n">
         <v>206.6581849802338</v>
@@ -27785,13 +27785,13 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>148.8788418911089</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27833,7 +27833,7 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>55.73584717546876</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27842,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27867,10 +27867,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>78.83585683585511</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>78.05012798721</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27903,19 +27903,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>123.4522153987943</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28013,7 +28013,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28025,10 +28025,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>115.3258519193756</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28067,16 +28067,16 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>260.7341728767399</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -31047,28 +31047,28 @@
         <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J2" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L2" t="n">
         <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O2" t="n">
         <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q2" t="n">
         <v>405.5015080147052</v>
@@ -31083,7 +31083,7 @@
         <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,7 +31120,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H3" t="n">
         <v>19.40387634380021</v>
@@ -31132,10 +31132,10 @@
         <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M3" t="n">
         <v>509.0653662040589</v>
@@ -31144,7 +31144,7 @@
         <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P3" t="n">
         <v>383.6539365378626</v>
@@ -31156,10 +31156,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U3" t="n">
         <v>0.1321789941675764</v>
@@ -31205,19 +31205,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L4" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N4" t="n">
         <v>257.7559726067959</v>
@@ -31232,16 +31232,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.755034742181061</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.4562495533618</v>
       </c>
       <c r="I5" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.7038799491901</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857145</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767382</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342227</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166597</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147053</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235313</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.567854187451</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436497</v>
       </c>
       <c r="J6" t="n">
-        <v>189.8178475575841</v>
+        <v>189.8178475575842</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178438</v>
+        <v>324.428935217844</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.065366204059</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762074</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997904</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000176</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31439,46 +31439,46 @@
         <v>1.684379313654579</v>
       </c>
       <c r="H7" t="n">
-        <v>14.97566335231072</v>
+        <v>14.97566335231073</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J7" t="n">
-        <v>119.0856174753787</v>
+        <v>119.0856174753788</v>
       </c>
       <c r="K7" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L7" t="n">
-        <v>250.4212663227908</v>
+        <v>250.4212663227909</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
-        <v>203.7180217169137</v>
+        <v>203.7180217169138</v>
       </c>
       <c r="Q7" t="n">
-        <v>141.0437987097484</v>
+        <v>141.0437987097485</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.3541376752348</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069564</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024989</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.755034742181061</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336178</v>
+        <v>38.4562495533618</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>318.7038799491901</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857145</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767382</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342227</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166597</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147053</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235313</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745096</v>
+        <v>85.567854187451</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436497</v>
       </c>
       <c r="J9" t="n">
-        <v>189.8178475575841</v>
+        <v>189.8178475575842</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178438</v>
+        <v>324.428935217844</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>509.065366204059</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762074</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997904</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000176</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31676,46 +31676,46 @@
         <v>1.684379313654579</v>
       </c>
       <c r="H10" t="n">
-        <v>14.97566335231072</v>
+        <v>14.97566335231073</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0856174753787</v>
+        <v>119.0856174753788</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L10" t="n">
-        <v>250.4212663227908</v>
+        <v>250.4212663227909</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
-        <v>203.7180217169137</v>
+        <v>203.7180217169138</v>
       </c>
       <c r="Q10" t="n">
-        <v>141.0437987097484</v>
+        <v>141.0437987097485</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>29.3541376752348</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069564</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024989</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
@@ -31843,37 +31843,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>338.1920576279218</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
@@ -32080,37 +32080,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>248.3870916262918</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32317,16 +32317,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
         <v>398.7616643558013</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32548,7 +32548,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32566,7 +32566,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32785,7 +32785,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32803,7 +32803,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -33180,7 +33180,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33496,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33514,7 +33514,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33970,7 +33970,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33988,7 +33988,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,31 +34201,31 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34701,28 +34701,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L2" t="n">
         <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O2" t="n">
         <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q2" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,13 +34777,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
-        <v>355.3309544215491</v>
+        <v>397.6203974676409</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M3" t="n">
         <v>366.9313322820406</v>
@@ -34795,13 +34795,13 @@
         <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235323</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977094</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,7 +34856,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
@@ -34865,7 +34865,7 @@
         <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N4" t="n">
         <v>301.8881449860245</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225038</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.806230106751</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376318</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949729</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402558</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939913</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313262</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>451.0527332560634</v>
+        <v>379.9148430313188</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378504</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820407</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>391.1970995928741</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961232</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235324</v>
       </c>
       <c r="Q6" t="n">
-        <v>255.4201198419607</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870598</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
-        <v>200.9965809818072</v>
+        <v>200.9965809818073</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805409</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225038</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>356.806230106751</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376318</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949729</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402558</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939913</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313262</v>
+        <v>117.9333660065815</v>
       </c>
       <c r="K9" t="n">
-        <v>379.9148430313198</v>
+        <v>451.0527332560636</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378504</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820407</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>391.1970995928741</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961232</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235324</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667036</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870598</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9965809818072</v>
+        <v>200.9965809818073</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805409</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35494,22 +35494,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>196.0580237059035</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902952</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>108.4053175402703</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902952</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,13 +35968,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
         <v>256.1654199113569</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36214,7 +36214,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36451,7 +36451,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36603,7 +36603,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
@@ -36828,7 +36828,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -37086,7 +37086,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q32" t="n">
         <v>371.5675334924728</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37162,7 +37162,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37636,7 +37636,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902952</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,16 +37864,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
